--- a/biology/Médecine/Pollakiurie/Pollakiurie.xlsx
+++ b/biology/Médecine/Pollakiurie/Pollakiurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On appelle pollakiurie une fréquence excessive des mictions. Le mot est dérivé du grec ancien πολλάκις ("souvent") et de -urie ("urine")[1]. Il s'agit d'un symptôme clinique, et non d'une pathologie. Toutefois, le volume d'urine produite en 24 heures n'est pas plus élevé pour autant, le patient a juste plus souvent envie d'aller uriner qu'à l'accoutumée, parfois en ayant la vessie vide.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On appelle pollakiurie une fréquence excessive des mictions. Le mot est dérivé du grec ancien πολλάκις ("souvent") et de -urie ("urine"). Il s'agit d'un symptôme clinique, et non d'une pathologie. Toutefois, le volume d'urine produite en 24 heures n'est pas plus élevé pour autant, le patient a juste plus souvent envie d'aller uriner qu'à l'accoutumée, parfois en ayant la vessie vide.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elles peuvent soit résulter d'une hyperactivité du détrusor (le muscle de la vessie), soit d'un obstacle à l'écoulement des urines.
 Infections urinaires :
@@ -524,8 +538,8 @@
 Pathologies prostatiques chez l'homme :
 hypertrophie bénigne de la prostate,
 tumeur de prostate, ou prostatite, qui relève de deux mécanismes puisqu'il s'agit d'une infection de la glande prostatique : une augmentation de son volume gênant, ipso facto, la miction ;
-Chez la femme : peut survenir en début de grossesse (3e semaine) ; associée à l'aménorrhée, elle constitue un signe évocateur[2]. Elles peuvent également résulter d'une irritabilité vésicale, à la suite d'une compression par un myome utérin ou un kyste ovarien ;
-Sclérose en plaques[3].</t>
+Chez la femme : peut survenir en début de grossesse (3e semaine) ; associée à l'aménorrhée, elle constitue un signe évocateur. Elles peuvent également résulter d'une irritabilité vésicale, à la suite d'une compression par un myome utérin ou un kyste ovarien ;
+Sclérose en plaques.</t>
         </is>
       </c>
     </row>
@@ -553,7 +567,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement dépend de la cause.
 </t>
@@ -584,7 +600,9 @@
           <t>Code CIM</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Code CIM-10 : R35 (nocturne) (sans incontinence), F45.3 (psychogène)
 </t>
